--- a/configs/dolma2-resharding/dolma2-0625-v02.xlsx
+++ b/configs/dolma2-resharding/dolma2-0625-v02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas/Code/dolma-toolkit/configs/dolma2-resharding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF50CD2-9A12-894C-AE94-BBD472007AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E592C6-B6C5-154E-A9BF-E65036B3EACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15080" yWindow="2660" windowWidth="27280" windowHeight="20160" xr2:uid="{626D08B0-7566-CE4C-B03B-52C93FF2C667}"/>
   </bookViews>
